--- a/Mercenary.xlsx
+++ b/Mercenary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>Amulet of Missile Protection</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -840,7 +843,7 @@
     <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -886,8 +889,11 @@
       <c r="O1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -928,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -969,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/Mercenary.xlsx
+++ b/Mercenary.xlsx
@@ -1054,7 +1054,7 @@
         <v>100</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>100</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>100</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>100</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>100</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>100</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>100</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>100</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>200</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>300</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>50</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
       <c r="O23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2105,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2126,7 +2126,7 @@
         <v>150</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>100</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -2290,7 +2290,7 @@
         <v>100</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>30</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>15</v>
@@ -2372,7 +2372,7 @@
         <v>100</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>100</v>
       </c>
       <c r="O38">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>158</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>159</v>
       </c>
       <c r="O44">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>20</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>10</v>
@@ -2712,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="O45">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>50</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2753,7 +2753,7 @@
         <v>200</v>
       </c>
       <c r="O46">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>100</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>153</v>
       </c>
       <c r="O53">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>50</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>25</v>
@@ -3380,7 +3380,7 @@
         <v>100</v>
       </c>
       <c r="O61">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="O63">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3696,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="G69">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>2</v>
